--- a/docs/times.xlsx
+++ b/docs/times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>n = 4000</t>
   </si>
@@ -27,10 +27,46 @@
     <t>Масштабируемость</t>
   </si>
   <si>
-    <t>n = 4000, block</t>
+    <t>n=2000, not block</t>
   </si>
   <si>
     <t>n=2500, not block</t>
+  </si>
+  <si>
+    <t>n=4000, not block</t>
+  </si>
+  <si>
+    <t>n = 2500</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 112</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 96</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 80</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 64</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 48</t>
+  </si>
+  <si>
+    <t>bs = 32, mbs = 32</t>
+  </si>
+  <si>
+    <t>bs = 16, mbs = 96</t>
+  </si>
+  <si>
+    <t>bs = 48, mbs = 96</t>
+  </si>
+  <si>
+    <t>блочный алгоритм</t>
+  </si>
+  <si>
+    <t>наивный алгоритм</t>
   </si>
 </sst>
 </file>
@@ -67,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -78,6 +114,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,16 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,7 +454,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>7.4</v>
@@ -435,78 +474,674 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C14" s="2">
         <f>C3/(C2*C3)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D14" s="2">
         <f>C3/(D2*D3)</f>
         <v>0.98666666666666669</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E14" s="2">
         <f>C3/(E2*E3)</f>
         <v>0.97368421052631593</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F14" s="2">
         <f>C3/(F2*F3)</f>
         <v>0.94871794871794868</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G14" s="2">
         <f>C3/(G2*G3)</f>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C4/(C2*C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C4/(D2*D4)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <f>C4/(E2*E4)</f>
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="F15" s="2">
+        <f>C4/(F2*F4)</f>
+        <v>0.93750000000000011</v>
+      </c>
+      <c r="G15" s="2">
+        <f>C4/(G2*G4)</f>
+        <v>0.93750000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C7/(C7*C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C7/(D7*D2)</f>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C7/(E2*E7)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="F18" s="2">
+        <f>C7/(F2*F7)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G18" s="2">
+        <f>C7/(G2*G7)</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C8/(C2*C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C8/(D2*D8)</f>
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C8/(E2*E8)</f>
+        <v>0.30681818181818182</v>
+      </c>
+      <c r="F19" s="2">
+        <f>C8/(F2*F8)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G19" s="2">
+        <f>C8/(G2*G8)</f>
+        <v>0.16071428571428573</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C9/(C2*C9)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C9/(D2*D9)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C9/(E2*E9)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="F20" s="2">
+        <f>C9/(F2*F9)</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="G20" s="2">
+        <f>C9/(G2*G9)</f>
+        <v>0.18749999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
